--- a/Result_files/V3_Bids_2021-06-28_2021-07-04.xlsx
+++ b/Result_files/V3_Bids_2021-06-28_2021-07-04.xlsx
@@ -545,22 +545,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="G2" t="n">
-        <v>63.691</v>
+        <v>62.70799999999991</v>
       </c>
       <c r="H2" t="n">
-        <v>47.8</v>
+        <v>24.2</v>
       </c>
       <c r="I2" t="n">
-        <v>60.19299999999993</v>
+        <v>60.193</v>
       </c>
       <c r="J2" t="n">
-        <v>-2198.795181761062</v>
+        <v>-214.5427518787965</v>
       </c>
       <c r="K2" t="n">
         <v>74.650002</v>
@@ -598,10 +598,10 @@
         <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>47.8</v>
       </c>
       <c r="E3" t="n">
-        <v>0.52</v>
+        <v>0.5100000000000182</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1225.018707291176</v>
+        <v>4566.753641663378</v>
       </c>
       <c r="K3" t="n">
         <v>69.970001</v>
@@ -657,7 +657,7 @@
         <v>47.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.51</v>
+        <v>0.5099999999999909</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4446.479747626379</v>
+        <v>4446.479747626378</v>
       </c>
       <c r="K4" t="n">
         <v>67.7</v>
@@ -713,7 +713,7 @@
         <v>47.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.51</v>
+        <v>0.5099999999999909</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4244.415622400672</v>
+        <v>4369.046756851242</v>
       </c>
       <c r="K5" t="n">
         <v>65.19000200000001</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>53.9</v>
+        <v>55.52</v>
       </c>
       <c r="D6" t="n">
         <v>49.8</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4025.057308475604</v>
+        <v>4513.797873741101</v>
       </c>
       <c r="K6" t="n">
         <v>66.89995999999999</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>53.9</v>
+        <v>55.52</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F7" t="n">
         <v>49.8</v>
@@ -840,7 +840,7 @@
         <v>61.78</v>
       </c>
       <c r="J7" t="n">
-        <v>-2457.763219830224</v>
+        <v>1447.103056560824</v>
       </c>
       <c r="K7" t="n">
         <v>70.99997999999999</v>
@@ -875,28 +875,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>53.9</v>
+        <v>55.52</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F8" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>63.08999999999997</v>
+        <v>65.73299999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I8" t="n">
-        <v>63.894</v>
+        <v>61.77699999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>-5120.318287272624</v>
+        <v>-2941.004379303817</v>
       </c>
       <c r="K8" t="n">
         <v>85.56999999999999</v>
@@ -931,28 +931,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>53.9</v>
+        <v>55.52</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.119999999999891</v>
+        <v>1.27</v>
       </c>
       <c r="F9" t="n">
-        <v>49.8</v>
+        <v>11.1</v>
       </c>
       <c r="G9" t="n">
         <v>62.947</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>38.7</v>
       </c>
       <c r="I9" t="n">
-        <v>62.108</v>
+        <v>59.99099999999993</v>
       </c>
       <c r="J9" t="n">
-        <v>-9374.313338805925</v>
+        <v>-3051.147343042704</v>
       </c>
       <c r="K9" t="n">
         <v>97.50003</v>
@@ -993,22 +993,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.119999999999891</v>
+        <v>1.27</v>
       </c>
       <c r="F10" t="n">
-        <v>47.8</v>
+        <v>23.6</v>
       </c>
       <c r="G10" t="n">
         <v>62.947</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="I10" t="n">
-        <v>59.99499999999998</v>
+        <v>59.99099999999993</v>
       </c>
       <c r="J10" t="n">
-        <v>-12968.37239746605</v>
+        <v>-3049.460265173604</v>
       </c>
       <c r="K10" t="n">
         <v>100.19997</v>
@@ -1046,10 +1046,10 @@
         <v>58.15</v>
       </c>
       <c r="D11" t="n">
-        <v>10.3</v>
+        <v>43.70000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-15703.79835554963</v>
+        <v>-101.9334317451466</v>
       </c>
       <c r="K11" t="n">
         <v>95</v>
@@ -1102,7 +1102,7 @@
         <v>58.15</v>
       </c>
       <c r="D12" t="n">
-        <v>47.8</v>
+        <v>30.10000000000001</v>
       </c>
       <c r="E12" t="n">
         <v>0.6</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-12794.58917888085</v>
+        <v>-88.56855490000001</v>
       </c>
       <c r="K12" t="n">
         <v>84.99997999999999</v>
@@ -1158,10 +1158,10 @@
         <v>58.15</v>
       </c>
       <c r="D13" t="n">
-        <v>47.8</v>
+        <v>38.49999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-13248.27168407893</v>
+        <v>-87.58384949999996</v>
       </c>
       <c r="K13" t="n">
         <v>81</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>54.56</v>
+        <v>62</v>
       </c>
       <c r="D14" t="n">
         <v>49.8</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-12763.82062782863</v>
+        <v>-884.9589200119565</v>
       </c>
       <c r="K14" t="n">
         <v>74.589996</v>
@@ -1267,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>54.56</v>
+        <v>62</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="F15" t="n">
         <v>49.8</v>
@@ -1288,7 +1288,7 @@
         <v>53.286</v>
       </c>
       <c r="J15" t="n">
-        <v>-10905.01726288036</v>
+        <v>88.97291943594945</v>
       </c>
       <c r="K15" t="n">
         <v>64.779999</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>54.56</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="F16" t="n">
         <v>49.8</v>
@@ -1344,7 +1344,7 @@
         <v>53.286</v>
       </c>
       <c r="J16" t="n">
-        <v>-12313.58806636277</v>
+        <v>-1302.541655323116</v>
       </c>
       <c r="K16" t="n">
         <v>67.150002</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>54.56</v>
+        <v>62</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="F17" t="n">
         <v>49.8</v>
@@ -1400,7 +1400,7 @@
         <v>53.286</v>
       </c>
       <c r="J17" t="n">
-        <v>-10634.4867696366</v>
+        <v>-74.30477426732848</v>
       </c>
       <c r="K17" t="n">
         <v>67.699997</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>52</v>
+        <v>55.2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="F18" t="n">
         <v>49.8</v>
@@ -1456,7 +1456,7 @@
         <v>53.57099999999997</v>
       </c>
       <c r="J18" t="n">
-        <v>-8412.285845192348</v>
+        <v>1274.578266310949</v>
       </c>
       <c r="K18" t="n">
         <v>66</v>
@@ -1491,28 +1491,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>52</v>
+        <v>55.2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>58.21699999999993</v>
+        <v>61.36800000000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I19" t="n">
         <v>53.57099999999997</v>
       </c>
       <c r="J19" t="n">
-        <v>-6179.408588808822</v>
+        <v>-1950.268441424026</v>
       </c>
       <c r="K19" t="n">
         <v>83.849998</v>
@@ -1547,28 +1547,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>52</v>
+        <v>55.2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.119999999999891</v>
+        <v>1.27</v>
       </c>
       <c r="F20" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>58.21699999999993</v>
+        <v>61.368</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I20" t="n">
         <v>53.57099999999997</v>
       </c>
       <c r="J20" t="n">
-        <v>-3078.968353723993</v>
+        <v>-1893.823267960072</v>
       </c>
       <c r="K20" t="n">
         <v>91.99997999999999</v>
@@ -1603,28 +1603,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>52</v>
+        <v>55.2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.119999999999891</v>
+        <v>1.27</v>
       </c>
       <c r="F21" t="n">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>58.1699999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>33.9</v>
+        <v>49.8</v>
       </c>
       <c r="I21" t="n">
         <v>53.85699999999991</v>
       </c>
       <c r="J21" t="n">
-        <v>-2790.144501249639</v>
+        <v>-1874.043950127897</v>
       </c>
       <c r="K21" t="n">
         <v>97</v>
@@ -1659,19 +1659,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>48.84</v>
+        <v>48.46</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.119999999999891</v>
+        <v>1.27</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>61.797</v>
+        <v>58.1699999999999</v>
       </c>
       <c r="H22" t="n">
         <v>49.8</v>
@@ -1680,7 +1680,7 @@
         <v>53.85699999999991</v>
       </c>
       <c r="J22" t="n">
-        <v>-2346.477630392222</v>
+        <v>-1871.659524065596</v>
       </c>
       <c r="K22" t="n">
         <v>96.910004</v>
@@ -1715,19 +1715,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>48.84</v>
+        <v>48.46</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9299999999998363</v>
+        <v>1.12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>63.55</v>
+        <v>61.79699999999998</v>
       </c>
       <c r="H23" t="n">
         <v>49.8</v>
@@ -1736,7 +1736,7 @@
         <v>59.62099999999992</v>
       </c>
       <c r="J23" t="n">
-        <v>-2159.313515118758</v>
+        <v>-2159.313515118757</v>
       </c>
       <c r="K23" t="n">
         <v>92.370003</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>48.84</v>
+        <v>48.46</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5199999999999818</v>
+        <v>0.67</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>59.62099999999992</v>
       </c>
       <c r="J24" t="n">
-        <v>-2191.296353599636</v>
+        <v>-2191.296353599639</v>
       </c>
       <c r="K24" t="n">
         <v>85.860001</v>
@@ -1827,19 +1827,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>48.84</v>
+        <v>48.46</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>64.07899999999999</v>
+        <v>58.97899999999998</v>
       </c>
       <c r="H25" t="n">
         <v>49.8</v>
@@ -1883,28 +1883,28 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>49.2</v>
+        <v>49.20000000000005</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>47.8</v>
       </c>
       <c r="G26" t="n">
         <v>62.66399999999993</v>
       </c>
       <c r="H26" t="n">
-        <v>44.8</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>60.25200000000001</v>
+        <v>65.53</v>
       </c>
       <c r="J26" t="n">
-        <v>-2033.344599299042</v>
+        <v>1595.842725783928</v>
       </c>
       <c r="K26" t="n">
         <v>61.98</v>
@@ -1939,13 +1939,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>49.2</v>
+        <v>49.20000000000005</v>
       </c>
       <c r="D27" t="n">
         <v>47.8</v>
       </c>
       <c r="E27" t="n">
-        <v>0.51</v>
+        <v>0.5099999999999909</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1995,13 +1995,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>49.2</v>
+        <v>49.20000000000005</v>
       </c>
       <c r="D28" t="n">
         <v>47.8</v>
       </c>
       <c r="E28" t="n">
-        <v>0.51</v>
+        <v>0.5099999999999909</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4348.663681596266</v>
+        <v>4348.663681596264</v>
       </c>
       <c r="K28" t="n">
         <v>56.5</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>49.2</v>
+        <v>49.20000000000005</v>
       </c>
       <c r="D29" t="n">
         <v>47.8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.51</v>
+        <v>0.5099999999999909</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4224.13699641218</v>
+        <v>4366.216777042525</v>
       </c>
       <c r="K29" t="n">
         <v>56.23</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3375.501195929411</v>
+        <v>4537.960276053986</v>
       </c>
       <c r="K30" t="n">
         <v>56.950001</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="F31" t="n">
         <v>49.8</v>
@@ -2184,7 +2184,7 @@
         <v>61.744</v>
       </c>
       <c r="J31" t="n">
-        <v>-2082.268590803683</v>
+        <v>1422.356727805979</v>
       </c>
       <c r="K31" t="n">
         <v>62</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.27</v>
+        <v>0.78</v>
       </c>
       <c r="F32" t="n">
         <v>49.8</v>
@@ -2240,7 +2240,7 @@
         <v>63.916</v>
       </c>
       <c r="J32" t="n">
-        <v>-4570.583600834783</v>
+        <v>316.9777895559762</v>
       </c>
       <c r="K32" t="n">
         <v>78.989998</v>
@@ -2281,22 +2281,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G33" t="n">
         <v>62.892</v>
       </c>
       <c r="H33" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>59.77600000000001</v>
+        <v>59.991</v>
       </c>
       <c r="J33" t="n">
-        <v>-10253.55356203632</v>
+        <v>-4250.595354596878</v>
       </c>
       <c r="K33" t="n">
         <v>85.790001</v>
@@ -2337,22 +2337,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G34" t="n">
         <v>62.892</v>
       </c>
       <c r="H34" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>59.77600000000001</v>
+        <v>59.991</v>
       </c>
       <c r="J34" t="n">
-        <v>-16271.80176177122</v>
+        <v>-7623.020798907461</v>
       </c>
       <c r="K34" t="n">
         <v>87.99997999999999</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.12</v>
+        <v>0.78</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>47.8</v>
       </c>
       <c r="I35" t="n">
-        <v>59.776</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-13893.25953817473</v>
+        <v>-7885.021939268725</v>
       </c>
       <c r="K35" t="n">
         <v>78.199997</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-11498.93195800324</v>
+        <v>-7129.712946655242</v>
       </c>
       <c r="K36" t="n">
         <v>64.949997</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-8206.918920461343</v>
+        <v>-7057.52834493769</v>
       </c>
       <c r="K37" t="n">
         <v>61.99998</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-11004.8652315348</v>
+        <v>-5761.816023472028</v>
       </c>
       <c r="K38" t="n">
         <v>58.130001</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="F39" t="n">
         <v>49.8</v>
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>56.143</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-12022.95124692744</v>
+        <v>-6161.581516330794</v>
       </c>
       <c r="K39" t="n">
         <v>56.119999</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="F40" t="n">
         <v>49.8</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>53.286</v>
       </c>
       <c r="J40" t="n">
-        <v>-11278.44390155595</v>
+        <v>-4351.294800024954</v>
       </c>
       <c r="K40" t="n">
         <v>55.400002</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="F41" t="n">
         <v>49.8</v>
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>56.143</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-8039.975483147104</v>
+        <v>-2093.134997041198</v>
       </c>
       <c r="K41" t="n">
         <v>56.91</v>
@@ -2779,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>58.96</v>
+        <v>64.63</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="F42" t="n">
         <v>49.8</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>60.888</v>
+        <v>56.42900000000001</v>
       </c>
       <c r="J42" t="n">
-        <v>-4281.693460941557</v>
+        <v>908.734069256388</v>
       </c>
       <c r="K42" t="n">
         <v>58.130001</v>
@@ -2835,28 +2835,28 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>58.96</v>
+        <v>64.63</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="F43" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.87700000000001</v>
+        <v>61.368</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I43" t="n">
-        <v>60.888</v>
+        <v>53.57099999999997</v>
       </c>
       <c r="J43" t="n">
-        <v>-3675.709224684783</v>
+        <v>-2058.09864869242</v>
       </c>
       <c r="K43" t="n">
         <v>70.58000199999999</v>
@@ -2891,28 +2891,28 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>58.96</v>
+        <v>64.63</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F44" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>57.87700000000001</v>
+        <v>58.18</v>
       </c>
       <c r="H44" t="n">
-        <v>28.2</v>
+        <v>49.8</v>
       </c>
       <c r="I44" t="n">
         <v>53.57099999999997</v>
       </c>
       <c r="J44" t="n">
-        <v>-2872.939260299999</v>
+        <v>-2015.19758843367</v>
       </c>
       <c r="K44" t="n">
         <v>79.360001</v>
@@ -2947,19 +2947,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>58.96</v>
+        <v>64.63</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>58.132</v>
+        <v>58.13200000000001</v>
       </c>
       <c r="H45" t="n">
         <v>49.8</v>
@@ -2968,7 +2968,7 @@
         <v>53.85699999999991</v>
       </c>
       <c r="J45" t="n">
-        <v>-3140.535241359447</v>
+        <v>-1958.737411977284</v>
       </c>
       <c r="K45" t="n">
         <v>86.699997</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>41.04</v>
+        <v>53.22</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>58.132</v>
+        <v>57.82999999999998</v>
       </c>
       <c r="H46" t="n">
         <v>49.8</v>
@@ -3024,7 +3024,7 @@
         <v>53.85699999999991</v>
       </c>
       <c r="J46" t="n">
-        <v>-2449.636700563694</v>
+        <v>-1944.454326506019</v>
       </c>
       <c r="K46" t="n">
         <v>85.139999</v>
@@ -3059,19 +3059,19 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>41.04</v>
+        <v>53.22</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1.12</v>
+        <v>0.93</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>61.797</v>
+        <v>57.82999999999998</v>
       </c>
       <c r="H47" t="n">
         <v>49.8</v>
@@ -3115,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>41.04</v>
+        <v>53.22</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6599999999998545</v>
+        <v>0.67</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>49.8</v>
       </c>
       <c r="I48" t="n">
-        <v>59.60999999999996</v>
+        <v>59.61</v>
       </c>
       <c r="J48" t="n">
         <v>-2225.514904825615</v>
@@ -3171,19 +3171,19 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>41.04</v>
+        <v>53.22</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>63.416</v>
+        <v>58.63900000000001</v>
       </c>
       <c r="H49" t="n">
         <v>49.8</v>
@@ -3233,22 +3233,22 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G50" t="n">
         <v>62.66399999999993</v>
       </c>
       <c r="H50" t="n">
-        <v>47.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>61.08099999999996</v>
+        <v>61.123</v>
       </c>
       <c r="J50" t="n">
-        <v>-2185.8221696409</v>
+        <v>1779.309179127691</v>
       </c>
       <c r="K50" t="n">
         <v>61.98</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>4564.032330685062</v>
+        <v>4563.897489485168</v>
       </c>
       <c r="K51" t="n">
         <v>58.939999</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>53.9</v>
+        <v>61.39</v>
       </c>
       <c r="D54" t="n">
         <v>49.8</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>4427.199022221469</v>
+        <v>4561.903406123753</v>
       </c>
       <c r="K54" t="n">
         <v>56.950001</v>
@@ -3507,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>53.9</v>
+        <v>61.39</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="F55" t="n">
         <v>49.8</v>
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>61.78</v>
+        <v>61.77700000000002</v>
       </c>
       <c r="J55" t="n">
-        <v>1101.243295098401</v>
+        <v>1337.755210311016</v>
       </c>
       <c r="K55" t="n">
         <v>62</v>
@@ -3563,28 +3563,28 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>53.9</v>
+        <v>61.39</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.9</v>
       </c>
       <c r="F56" t="n">
-        <v>12.9</v>
+        <v>7.5</v>
       </c>
       <c r="G56" t="n">
         <v>63.03499999999991</v>
       </c>
       <c r="H56" t="n">
-        <v>36.9</v>
+        <v>42.3</v>
       </c>
       <c r="I56" t="n">
         <v>61.76499999999993</v>
       </c>
       <c r="J56" t="n">
-        <v>-3110.246601180001</v>
+        <v>-3096.02723046</v>
       </c>
       <c r="K56" t="n">
         <v>78.989998</v>
@@ -3619,28 +3619,28 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>53.9</v>
+        <v>61.39</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8999999999996362</v>
+        <v>1.26</v>
       </c>
       <c r="F57" t="n">
-        <v>21.8</v>
+        <v>26.4</v>
       </c>
       <c r="G57" t="n">
         <v>62.892</v>
       </c>
       <c r="H57" t="n">
-        <v>28</v>
+        <v>23.4</v>
       </c>
       <c r="I57" t="n">
         <v>59.97999999999996</v>
       </c>
       <c r="J57" t="n">
-        <v>-3092.209541701301</v>
+        <v>-3110.618208915365</v>
       </c>
       <c r="K57" t="n">
         <v>85.790001</v>
@@ -3681,22 +3681,22 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="G58" t="n">
-        <v>62.947</v>
+        <v>62.892</v>
       </c>
       <c r="H58" t="n">
-        <v>47.8</v>
+        <v>27.5</v>
       </c>
       <c r="I58" t="n">
         <v>59.97999999999996</v>
       </c>
       <c r="J58" t="n">
-        <v>-6239.369942563671</v>
+        <v>-6494.880664123996</v>
       </c>
       <c r="K58" t="n">
         <v>87.99997999999999</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-947.0445660486653</v>
+        <v>-5410.671061177429</v>
       </c>
       <c r="K59" t="n">
         <v>78.199997</v>
@@ -3790,10 +3790,10 @@
         <v>55.79</v>
       </c>
       <c r="D60" t="n">
-        <v>41.7</v>
+        <v>47.8</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4</v>
+        <v>0.3999999999996362</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-83.31470629999993</v>
+        <v>-7440.040127268536</v>
       </c>
       <c r="K60" t="n">
         <v>64.949997</v>
@@ -3846,10 +3846,10 @@
         <v>55.79</v>
       </c>
       <c r="D61" t="n">
-        <v>38.5</v>
+        <v>47.8</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4</v>
+        <v>0.3999999999996362</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-81.3961174999999</v>
+        <v>-8016.800147378395</v>
       </c>
       <c r="K61" t="n">
         <v>61.99998</v>
@@ -3899,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>61.91999999999999</v>
+        <v>66</v>
       </c>
       <c r="D62" t="n">
-        <v>38</v>
+        <v>49.8</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3999999999996363</v>
+        <v>0.3999999999996361</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-19.98055199999999</v>
+        <v>-5411.092250419695</v>
       </c>
       <c r="K62" t="n">
         <v>58.130001</v>
@@ -3955,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>61.91999999999999</v>
+        <v>66</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5700000000000006</v>
+        <v>0.570000000000091</v>
       </c>
       <c r="F63" t="n">
         <v>49.8</v>
@@ -3976,7 +3976,7 @@
         <v>53.286</v>
       </c>
       <c r="J63" t="n">
-        <v>-884.8594590217267</v>
+        <v>-6513.194422014174</v>
       </c>
       <c r="K63" t="n">
         <v>56.119999</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>61.91999999999999</v>
+        <v>66</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>53.286</v>
       </c>
       <c r="J64" t="n">
-        <v>-844.0079300280114</v>
+        <v>-4724.711904396784</v>
       </c>
       <c r="K64" t="n">
         <v>55.400002</v>
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>61.91999999999999</v>
+        <v>66</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.58</v>
+        <v>0.570000000000091</v>
       </c>
       <c r="F65" t="n">
         <v>49.8</v>
@@ -4088,7 +4088,7 @@
         <v>53.286</v>
       </c>
       <c r="J65" t="n">
-        <v>-1960.492607927459</v>
+        <v>-2230.718054691683</v>
       </c>
       <c r="K65" t="n">
         <v>56.91</v>
@@ -4123,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>52.17</v>
+        <v>59</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F66" t="n">
         <v>49.8</v>
@@ -4144,7 +4144,7 @@
         <v>53.571</v>
       </c>
       <c r="J66" t="n">
-        <v>-1910.506064268425</v>
+        <v>1036.833329771044</v>
       </c>
       <c r="K66" t="n">
         <v>58.130001</v>
@@ -4179,28 +4179,28 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>52.17</v>
+        <v>59</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.67</v>
       </c>
       <c r="F67" t="n">
-        <v>7.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>57.87700000000001</v>
+        <v>61.347</v>
       </c>
       <c r="H67" t="n">
-        <v>42.5</v>
+        <v>49.8</v>
       </c>
       <c r="I67" t="n">
         <v>53.571</v>
       </c>
       <c r="J67" t="n">
-        <v>-2713.032618499997</v>
+        <v>-1915.987239898348</v>
       </c>
       <c r="K67" t="n">
         <v>70.58000199999999</v>
@@ -4235,19 +4235,19 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>52.17</v>
+        <v>59</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.97</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>61.347</v>
+        <v>58.21700000000002</v>
       </c>
       <c r="H68" t="n">
         <v>49.8</v>
@@ -4256,7 +4256,7 @@
         <v>53.571</v>
       </c>
       <c r="J68" t="n">
-        <v>-2513.808161202669</v>
+        <v>-1869.520429293915</v>
       </c>
       <c r="K68" t="n">
         <v>79.360001</v>
@@ -4291,19 +4291,19 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>52.17</v>
+        <v>59</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.97</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>61.776</v>
+        <v>58.16999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>49.8</v>
@@ -4312,7 +4312,7 @@
         <v>53.857</v>
       </c>
       <c r="J69" t="n">
-        <v>-2131.481353292123</v>
+        <v>-1813.282085668598</v>
       </c>
       <c r="K69" t="n">
         <v>86.699997</v>
@@ -4347,19 +4347,19 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>34</v>
+        <v>48.84</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.97</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>58.17</v>
+        <v>58.16999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>49.8</v>
@@ -4368,7 +4368,7 @@
         <v>53.857</v>
       </c>
       <c r="J70" t="n">
-        <v>-1910.210555416694</v>
+        <v>-1797.335453911208</v>
       </c>
       <c r="K70" t="n">
         <v>85.139999</v>
@@ -4403,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>34</v>
+        <v>48.84</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -4459,19 +4459,19 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>34</v>
+        <v>48.84</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.52</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>58.979</v>
+        <v>63.395</v>
       </c>
       <c r="H72" t="n">
         <v>49.8</v>
@@ -4480,7 +4480,7 @@
         <v>59.63900000000001</v>
       </c>
       <c r="J72" t="n">
-        <v>-2178.797897953681</v>
+        <v>-2178.797897953682</v>
       </c>
       <c r="K72" t="n">
         <v>75.30999799999999</v>
@@ -4515,19 +4515,19 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>34</v>
+        <v>48.84</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.52</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>63.395</v>
+        <v>63.39500000000001</v>
       </c>
       <c r="H73" t="n">
         <v>49.8</v>
@@ -4536,7 +4536,7 @@
         <v>59.63900000000001</v>
       </c>
       <c r="J73" t="n">
-        <v>-2236.606676383651</v>
+        <v>-2236.606676383649</v>
       </c>
       <c r="K73" t="n">
         <v>67.80002</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5200000000004739</v>
+        <v>0.5100000000004647</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>60.12599999999992</v>
       </c>
       <c r="J74" t="n">
-        <v>-2137.608045364381</v>
+        <v>-2137.608045364379</v>
       </c>
       <c r="K74" t="n">
         <v>74.650002</v>
@@ -4630,10 +4630,10 @@
         <v>47</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5100000000004647</v>
+        <v>0.5099999999999727</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>712.374175616068</v>
+        <v>3191.417399236747</v>
       </c>
       <c r="K75" t="n">
         <v>69.970001</v>
@@ -4689,7 +4689,7 @@
         <v>47.8</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4000000000003645</v>
+        <v>0.3999999999996362</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>4638.338418591377</v>
+        <v>4637.706298586098</v>
       </c>
       <c r="K76" t="n">
         <v>67.7</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>4509.33136426767</v>
+        <v>4509.317841700938</v>
       </c>
       <c r="K77" t="n">
         <v>65.19000200000001</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>54</v>
+        <v>56.96</v>
       </c>
       <c r="D78" t="n">
         <v>49.8</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>4416.832541606995</v>
+        <v>4656.172831450926</v>
       </c>
       <c r="K78" t="n">
         <v>66.89995999999999</v>
@@ -4851,28 +4851,28 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>54</v>
+        <v>56.96</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5200000000004739</v>
+        <v>0.5100000000004647</v>
       </c>
       <c r="F79" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>65.66400000000002</v>
       </c>
       <c r="H79" t="n">
-        <v>45.6</v>
+        <v>49.8</v>
       </c>
       <c r="I79" t="n">
         <v>61.74399999999997</v>
       </c>
       <c r="J79" t="n">
-        <v>-3040.030237188004</v>
+        <v>-2687.205346207244</v>
       </c>
       <c r="K79" t="n">
         <v>70.99997999999999</v>
@@ -4907,19 +4907,19 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>54</v>
+        <v>56.96</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>1.12</v>
+        <v>0.66</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>65.66400000000002</v>
       </c>
       <c r="H80" t="n">
         <v>49.8</v>
@@ -4928,7 +4928,7 @@
         <v>61.74399999999997</v>
       </c>
       <c r="J80" t="n">
-        <v>-4609.651571239148</v>
+        <v>-4961.788420769341</v>
       </c>
       <c r="K80" t="n">
         <v>85.56999999999999</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>54</v>
+        <v>56.96</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -4984,7 +4984,7 @@
         <v>59.991</v>
       </c>
       <c r="J81" t="n">
-        <v>-5469.075084852794</v>
+        <v>-3600.954545160288</v>
       </c>
       <c r="K81" t="n">
         <v>97.50003</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8999999999996362</v>
+        <v>1.12</v>
       </c>
       <c r="F82" t="n">
         <v>47.8</v>
@@ -5037,10 +5037,10 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>59.991</v>
+        <v>62.08400000000003</v>
       </c>
       <c r="J82" t="n">
-        <v>-9926.284592172173</v>
+        <v>-6323.263883533101</v>
       </c>
       <c r="K82" t="n">
         <v>100.19997</v>
@@ -5087,7 +5087,7 @@
         <v>47.8</v>
       </c>
       <c r="G83" t="n">
-        <v>59.853</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-5770.883111304966</v>
+        <v>-7846.9677155443</v>
       </c>
       <c r="K83" t="n">
         <v>95</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-2381.746933566394</v>
+        <v>-4868.319319991208</v>
       </c>
       <c r="K84" t="n">
         <v>84.99997999999999</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-3976.545814974966</v>
+        <v>-3631.755004947764</v>
       </c>
       <c r="K85" t="n">
         <v>81</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-4673.177342019682</v>
+        <v>-3549.031449321416</v>
       </c>
       <c r="K86" t="n">
         <v>74.589996</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.58</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F87" t="n">
         <v>49.8</v>
@@ -5320,7 +5320,7 @@
         <v>53.286</v>
       </c>
       <c r="J87" t="n">
-        <v>-6971.181283660379</v>
+        <v>-4623.950075287987</v>
       </c>
       <c r="K87" t="n">
         <v>64.779999</v>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.58</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F88" t="n">
         <v>49.8</v>
@@ -5376,7 +5376,7 @@
         <v>53.286</v>
       </c>
       <c r="J88" t="n">
-        <v>-6694.687822430443</v>
+        <v>-2529.846355988921</v>
       </c>
       <c r="K88" t="n">
         <v>67.150002</v>
@@ -5417,22 +5417,22 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.58</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>49.8</v>
+        <v>27.8</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I89" t="n">
         <v>53.286</v>
       </c>
       <c r="J89" t="n">
-        <v>-4647.690967562004</v>
+        <v>-2394.949766545019</v>
       </c>
       <c r="K89" t="n">
         <v>67.699997</v>
@@ -5467,13 +5467,13 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>48</v>
+        <v>55.06</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F90" t="n">
         <v>49.8</v>
@@ -5488,7 +5488,7 @@
         <v>53.57099999999997</v>
       </c>
       <c r="J90" t="n">
-        <v>-5030.916547287141</v>
+        <v>183.4689837136129</v>
       </c>
       <c r="K90" t="n">
         <v>66</v>
@@ -5523,28 +5523,28 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>48</v>
+        <v>55.06</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F91" t="n">
-        <v>49.8</v>
+        <v>34.6</v>
       </c>
       <c r="G91" t="n">
-        <v>59.51999999999992</v>
+        <v>59.52000000000002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="I91" t="n">
         <v>53.57099999999997</v>
       </c>
       <c r="J91" t="n">
-        <v>-4008.145644671122</v>
+        <v>951.8649513080024</v>
       </c>
       <c r="K91" t="n">
         <v>83.849998</v>
@@ -5579,28 +5579,28 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>48</v>
+        <v>55.06</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9299999999998363</v>
+        <v>1.12</v>
       </c>
       <c r="F92" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>59.51999999999992</v>
+        <v>60.82500000000002</v>
       </c>
       <c r="H92" t="n">
-        <v>45.1</v>
+        <v>49.8</v>
       </c>
       <c r="I92" t="n">
         <v>53.57099999999997</v>
       </c>
       <c r="J92" t="n">
-        <v>-2728.02467213</v>
+        <v>-1910.457523074017</v>
       </c>
       <c r="K92" t="n">
         <v>91.99997999999999</v>
@@ -5635,19 +5635,19 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>48</v>
+        <v>55.06</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8999999999996362</v>
+        <v>1.12</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>61.776</v>
+        <v>61.17400000000001</v>
       </c>
       <c r="H93" t="n">
         <v>49.8</v>
@@ -5656,7 +5656,7 @@
         <v>53.85699999999991</v>
       </c>
       <c r="J93" t="n">
-        <v>-2381.949590106933</v>
+        <v>-1884.213176278577</v>
       </c>
       <c r="K93" t="n">
         <v>97</v>
@@ -5691,19 +5691,19 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.669999999999618</v>
+        <v>1.12</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>61.776</v>
+        <v>61.17400000000001</v>
       </c>
       <c r="H94" t="n">
         <v>49.8</v>
@@ -5747,19 +5747,19 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>1.12</v>
+        <v>0.93</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>63.578</v>
+        <v>61.77600000000001</v>
       </c>
       <c r="H95" t="n">
         <v>49.8</v>
@@ -5768,7 +5768,7 @@
         <v>59.58799999999991</v>
       </c>
       <c r="J95" t="n">
-        <v>-2152.170910062428</v>
+        <v>-2152.170910062429</v>
       </c>
       <c r="K95" t="n">
         <v>92.370003</v>
@@ -5803,19 +5803,19 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5199999999999818</v>
+        <v>0.67</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>63.395</v>
+        <v>64.10899999999999</v>
       </c>
       <c r="H96" t="n">
         <v>49.8</v>
@@ -5824,7 +5824,7 @@
         <v>59.58799999999991</v>
       </c>
       <c r="J96" t="n">
-        <v>-2182.465314707752</v>
+        <v>-2182.46531470775</v>
       </c>
       <c r="K96" t="n">
         <v>85.860001</v>
@@ -5859,19 +5859,19 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5099999999999909</v>
+        <v>0.52</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>64.10899999999999</v>
+        <v>63.39500000000002</v>
       </c>
       <c r="H97" t="n">
         <v>49.8</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F98" t="n">
         <v>47.8</v>
@@ -5933,10 +5933,10 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>61.114</v>
+        <v>65.176</v>
       </c>
       <c r="J98" t="n">
-        <v>1448.548349044738</v>
+        <v>1448.548349044739</v>
       </c>
       <c r="K98" t="n">
         <v>61.98</v>
@@ -5977,7 +5977,7 @@
         <v>47.8</v>
       </c>
       <c r="E99" t="n">
-        <v>0.51</v>
+        <v>0.5099999999999909</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>4260.476298765641</v>
+        <v>4260.476298765639</v>
       </c>
       <c r="K99" t="n">
         <v>58.939999</v>
@@ -6033,7 +6033,7 @@
         <v>47.8</v>
       </c>
       <c r="E100" t="n">
-        <v>0.51</v>
+        <v>0.5099999999999909</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>4222.788683365817</v>
+        <v>4222.788683365818</v>
       </c>
       <c r="K100" t="n">
         <v>56.5</v>
@@ -6089,7 +6089,7 @@
         <v>47.8</v>
       </c>
       <c r="E101" t="n">
-        <v>0.51</v>
+        <v>0.5099999999999909</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>4243.377504850284</v>
+        <v>4243.377504850282</v>
       </c>
       <c r="K101" t="n">
         <v>56.23</v>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>55.52</v>
+        <v>60.97</v>
       </c>
       <c r="D102" t="n">
         <v>49.8</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>4424.695846144224</v>
+        <v>4447.40681519754</v>
       </c>
       <c r="K102" t="n">
         <v>56.950001</v>
@@ -6195,13 +6195,13 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>55.52</v>
+        <v>60.97</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F103" t="n">
         <v>49.8</v>
@@ -6213,10 +6213,10 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>62.199</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>747.1260514061372</v>
+        <v>1211.803726627182</v>
       </c>
       <c r="K103" t="n">
         <v>62</v>
@@ -6251,13 +6251,13 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>55.52</v>
+        <v>60.97</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="F104" t="n">
         <v>49.8</v>
@@ -6269,10 +6269,10 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>62.199</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>897.699179578899</v>
+        <v>990.0959428354953</v>
       </c>
       <c r="K104" t="n">
         <v>78.989998</v>
@@ -6307,28 +6307,28 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>55.52</v>
+        <v>60.97</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>1.119999999999891</v>
+        <v>1.27</v>
       </c>
       <c r="F105" t="n">
-        <v>23.5</v>
+        <v>15.8</v>
       </c>
       <c r="G105" t="n">
         <v>62.892</v>
       </c>
       <c r="H105" t="n">
-        <v>26.3</v>
+        <v>34</v>
       </c>
       <c r="I105" t="n">
-        <v>59.52799999999996</v>
+        <v>59.52799999999998</v>
       </c>
       <c r="J105" t="n">
-        <v>-3083.174044462086</v>
+        <v>-3048.242678755017</v>
       </c>
       <c r="K105" t="n">
         <v>85.790001</v>
@@ -6369,22 +6369,22 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1.119999999999891</v>
+        <v>1.27</v>
       </c>
       <c r="F106" t="n">
-        <v>25.5</v>
+        <v>44.40000000000001</v>
       </c>
       <c r="G106" t="n">
         <v>62.892</v>
       </c>
       <c r="H106" t="n">
-        <v>22.3</v>
+        <v>3.4</v>
       </c>
       <c r="I106" t="n">
         <v>59.52799999999996</v>
       </c>
       <c r="J106" t="n">
-        <v>-3028.170089853016</v>
+        <v>-3100.921207837308</v>
       </c>
       <c r="K106" t="n">
         <v>87.99997999999999</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1.12</v>
+        <v>0.8</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -6437,10 +6437,10 @@
         <v>47.8</v>
       </c>
       <c r="I107" t="n">
-        <v>59.528</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>-2235.787025859579</v>
+        <v>-7840.404252898586</v>
       </c>
       <c r="K107" t="n">
         <v>78.199997</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-2822.568184725755</v>
+        <v>-7442.778090445717</v>
       </c>
       <c r="K108" t="n">
         <v>64.949997</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-2157.01503053892</v>
+        <v>-7408.947517030364</v>
       </c>
       <c r="K109" t="n">
         <v>61.99998</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-434.1081059996126</v>
+        <v>-6134.395089678861</v>
       </c>
       <c r="K110" t="n">
         <v>58.130001</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="F111" t="n">
         <v>49.8</v>
@@ -6661,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>53.9</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>-2515.759733417623</v>
+        <v>-5498.309666214692</v>
       </c>
       <c r="K111" t="n">
         <v>56.119999</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="F112" t="n">
         <v>49.8</v>
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>53.9</v>
+        <v>53.28600000000001</v>
       </c>
       <c r="J112" t="n">
-        <v>-3354.778053923416</v>
+        <v>-4854.48978760683</v>
       </c>
       <c r="K112" t="n">
         <v>55.400002</v>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="F113" t="n">
         <v>49.8</v>
@@ -6773,10 +6773,10 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>53.9</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>-3761.244315387554</v>
+        <v>-2586.127194585429</v>
       </c>
       <c r="K113" t="n">
         <v>56.91</v>
@@ -6811,13 +6811,13 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>61.6</v>
+        <v>58.96</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="F114" t="n">
         <v>49.8</v>
@@ -6832,7 +6832,7 @@
         <v>59.337</v>
       </c>
       <c r="J114" t="n">
-        <v>-716.0468327183944</v>
+        <v>441.9886391648673</v>
       </c>
       <c r="K114" t="n">
         <v>58.130001</v>
@@ -6867,28 +6867,28 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>61.6</v>
+        <v>58.96</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.66</v>
       </c>
       <c r="F115" t="n">
-        <v>26.4</v>
+        <v>49.8</v>
       </c>
       <c r="G115" t="n">
         <v>58.18000000000001</v>
       </c>
       <c r="H115" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>53.57099999999997</v>
+        <v>54.186</v>
       </c>
       <c r="J115" t="n">
-        <v>-2852.535656580002</v>
+        <v>2251.424795580358</v>
       </c>
       <c r="K115" t="n">
         <v>70.58000199999999</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>61.6</v>
+        <v>58.96</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -6932,19 +6932,19 @@
         <v>1.27</v>
       </c>
       <c r="F116" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>58.18000000000001</v>
+        <v>58.217</v>
       </c>
       <c r="H116" t="n">
-        <v>22.8</v>
+        <v>49.8</v>
       </c>
       <c r="I116" t="n">
         <v>53.57099999999997</v>
       </c>
       <c r="J116" t="n">
-        <v>-2854.853161560001</v>
+        <v>-1983.185388636943</v>
       </c>
       <c r="K116" t="n">
         <v>79.360001</v>
@@ -6979,28 +6979,28 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>61.6</v>
+        <v>58.96</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>1.119999999999891</v>
+        <v>1.27</v>
       </c>
       <c r="F117" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>58.13200000000001</v>
+        <v>61.776</v>
       </c>
       <c r="H117" t="n">
-        <v>45.40000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I117" t="n">
         <v>53.85699999999991</v>
       </c>
       <c r="J117" t="n">
-        <v>-2777.330336634516</v>
+        <v>-1936.575949056598</v>
       </c>
       <c r="K117" t="n">
         <v>86.699997</v>
@@ -7041,13 +7041,13 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1.119999999999891</v>
+        <v>1.27</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>58.17</v>
+        <v>61.776</v>
       </c>
       <c r="H118" t="n">
         <v>49.8</v>
@@ -7056,7 +7056,7 @@
         <v>53.85699999999991</v>
       </c>
       <c r="J118" t="n">
-        <v>-2216.995120492944</v>
+        <v>-1927.243855060391</v>
       </c>
       <c r="K118" t="n">
         <v>85.139999</v>
@@ -7097,13 +7097,13 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9299999999998363</v>
+        <v>1.12</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>58.17</v>
+        <v>61.776</v>
       </c>
       <c r="H119" t="n">
         <v>49.8</v>
@@ -7153,13 +7153,13 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5199999999999818</v>
+        <v>0.67</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>58.979</v>
+        <v>63.395</v>
       </c>
       <c r="H120" t="n">
         <v>49.8</v>
@@ -7209,13 +7209,13 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>58.979</v>
+        <v>58.97900000000002</v>
       </c>
       <c r="H121" t="n">
         <v>49.8</v>
@@ -7265,22 +7265,22 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>28.1</v>
       </c>
       <c r="G122" t="n">
-        <v>65.492</v>
+        <v>62.664</v>
       </c>
       <c r="H122" t="n">
-        <v>47.8</v>
+        <v>19.7</v>
       </c>
       <c r="I122" t="n">
-        <v>60.19299999999993</v>
+        <v>60.193</v>
       </c>
       <c r="J122" t="n">
-        <v>-2165.734574110381</v>
+        <v>288.5090573324361</v>
       </c>
       <c r="K122" t="n">
         <v>74.870003</v>
@@ -7321,7 +7321,7 @@
         <v>47.8</v>
       </c>
       <c r="E123" t="n">
-        <v>0.51</v>
+        <v>0.5099999999999909</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>3839.786210697049</v>
+        <v>4665.314636819524</v>
       </c>
       <c r="K123" t="n">
         <v>65.25</v>
@@ -7377,7 +7377,7 @@
         <v>47.8</v>
       </c>
       <c r="E124" t="n">
-        <v>0.51</v>
+        <v>0.5099999999999909</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>4542.99091491938</v>
+        <v>4542.856556013508</v>
       </c>
       <c r="K124" t="n">
         <v>59.9998</v>
@@ -7433,7 +7433,7 @@
         <v>47.8</v>
       </c>
       <c r="E125" t="n">
-        <v>0.51</v>
+        <v>0.5099999999999909</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>4379.889556533468</v>
+        <v>4438.076455244791</v>
       </c>
       <c r="K125" t="n">
         <v>56.959999</v>
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>55.52</v>
+        <v>66</v>
       </c>
       <c r="D126" t="n">
         <v>49.8</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>4006.180195120817</v>
+        <v>4599.155690395132</v>
       </c>
       <c r="K126" t="n">
         <v>56.29999</v>
@@ -7539,19 +7539,19 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>55.52</v>
+        <v>66</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>62.574</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>49.8</v>
@@ -7560,7 +7560,7 @@
         <v>61.74399999999997</v>
       </c>
       <c r="J127" t="n">
-        <v>-2828.058523769355</v>
+        <v>-2702.047979879116</v>
       </c>
       <c r="K127" t="n">
         <v>56.40001</v>
@@ -7595,28 +7595,28 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>55.52</v>
+        <v>66</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>49.8</v>
+        <v>41.2</v>
       </c>
       <c r="I128" t="n">
         <v>61.74399999999997</v>
       </c>
       <c r="J128" t="n">
-        <v>-3470.087329266845</v>
+        <v>-2995.385249839997</v>
       </c>
       <c r="K128" t="n">
         <v>56.7</v>
@@ -7651,28 +7651,28 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>55.52</v>
+        <v>66</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F129" t="n">
-        <v>25</v>
+        <v>31.5</v>
       </c>
       <c r="G129" t="n">
         <v>59.75399999999996</v>
       </c>
       <c r="H129" t="n">
-        <v>24.8</v>
+        <v>18.3</v>
       </c>
       <c r="I129" t="n">
         <v>59.95799999999991</v>
       </c>
       <c r="J129" t="n">
-        <v>-3090.398182097879</v>
+        <v>-3115.340932096906</v>
       </c>
       <c r="K129" t="n">
         <v>59.7</v>
@@ -7716,19 +7716,19 @@
         <v>1.27</v>
       </c>
       <c r="F130" t="n">
-        <v>35</v>
+        <v>33.5</v>
       </c>
       <c r="G130" t="n">
         <v>59.75399999999996</v>
       </c>
       <c r="H130" t="n">
-        <v>12.8</v>
+        <v>14.3</v>
       </c>
       <c r="I130" t="n">
         <v>59.95799999999991</v>
       </c>
       <c r="J130" t="n">
-        <v>-3067.454538341142</v>
+        <v>-3060.815180378805</v>
       </c>
       <c r="K130" t="n">
         <v>66.19996999999999</v>
@@ -7775,7 +7775,7 @@
         <v>47.8</v>
       </c>
       <c r="G131" t="n">
-        <v>59.754</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-656.0766843858894</v>
+        <v>-311.3100793177737</v>
       </c>
       <c r="K131" t="n">
         <v>67.989998</v>
@@ -7822,7 +7822,7 @@
         <v>55.79</v>
       </c>
       <c r="D132" t="n">
-        <v>47.8</v>
+        <v>35.6</v>
       </c>
       <c r="E132" t="n">
         <v>0.6</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-1734.673025916622</v>
+        <v>-90.0673991058561</v>
       </c>
       <c r="K132" t="n">
         <v>57.73</v>
@@ -7878,10 +7878,10 @@
         <v>55.79</v>
       </c>
       <c r="D133" t="n">
-        <v>47.8</v>
+        <v>33.6</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6</v>
+        <v>0.5999999999999089</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-2667.89224242345</v>
+        <v>375.4899899371395</v>
       </c>
       <c r="K133" t="n">
         <v>58.29999</v>
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>54.56</v>
+        <v>62</v>
       </c>
       <c r="D134" t="n">
         <v>49.8</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-1180.464526798737</v>
+        <v>2588.790111933054</v>
       </c>
       <c r="K134" t="n">
         <v>58.830002</v>
@@ -7987,28 +7987,28 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>54.56</v>
+        <v>62</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="F135" t="n">
-        <v>49.8</v>
+        <v>17.30000000000002</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>57.92499999999999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="I135" t="n">
         <v>53.286</v>
       </c>
       <c r="J135" t="n">
-        <v>-7505.778175845513</v>
+        <v>-2555.285926215292</v>
       </c>
       <c r="K135" t="n">
         <v>55.490002</v>
@@ -8043,19 +8043,19 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>54.56</v>
+        <v>62</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="F136" t="n">
         <v>49.8</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>57.92499999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>53.286</v>
       </c>
       <c r="J136" t="n">
-        <v>-6198.364169089443</v>
+        <v>335.7903643493133</v>
       </c>
       <c r="K136" t="n">
         <v>52.400002</v>
@@ -8099,28 +8099,28 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>54.56</v>
+        <v>62</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="F137" t="n">
-        <v>49.8</v>
+        <v>3.299999999999989</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>57.92499999999999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>46.50000000000001</v>
       </c>
       <c r="I137" t="n">
         <v>53.286</v>
       </c>
       <c r="J137" t="n">
-        <v>-4615.597497149596</v>
+        <v>-2648.766933290078</v>
       </c>
       <c r="K137" t="n">
         <v>53.799999</v>
@@ -8155,13 +8155,13 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>52</v>
+        <v>64.16</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="F138" t="n">
         <v>49.8</v>
@@ -8176,7 +8176,7 @@
         <v>53.57099999999997</v>
       </c>
       <c r="J138" t="n">
-        <v>-4433.095537473858</v>
+        <v>1527.84831699606</v>
       </c>
       <c r="K138" t="n">
         <v>55.25</v>
@@ -8211,28 +8211,28 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>52</v>
+        <v>64.16</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.67</v>
       </c>
       <c r="F139" t="n">
-        <v>48.8</v>
+        <v>49.8</v>
       </c>
       <c r="G139" t="n">
         <v>57.87700000000001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>53.57099999999997</v>
       </c>
       <c r="J139" t="n">
-        <v>-2956.594177479256</v>
+        <v>2295.557564969009</v>
       </c>
       <c r="K139" t="n">
         <v>60.48</v>
@@ -8267,28 +8267,28 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>52</v>
+        <v>64.16</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F140" t="n">
-        <v>29.7</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>57.87700000000001</v>
+        <v>59.42099999999999</v>
       </c>
       <c r="H140" t="n">
-        <v>20.1</v>
+        <v>49.8</v>
       </c>
       <c r="I140" t="n">
         <v>53.57099999999997</v>
       </c>
       <c r="J140" t="n">
-        <v>-2854.161304829999</v>
+        <v>-1903.374910318961</v>
       </c>
       <c r="K140" t="n">
         <v>70.599998</v>
@@ -8323,28 +8323,28 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>52</v>
+        <v>64.16</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F141" t="n">
-        <v>5.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>57.82999999999998</v>
+        <v>61.192</v>
       </c>
       <c r="H141" t="n">
-        <v>44</v>
+        <v>49.8</v>
       </c>
       <c r="I141" t="n">
         <v>53.85699999999991</v>
       </c>
       <c r="J141" t="n">
-        <v>-2735.249256639247</v>
+        <v>-1863.705554214776</v>
       </c>
       <c r="K141" t="n">
         <v>75.620003</v>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -8400,7 +8400,7 @@
         <v>53.85699999999991</v>
       </c>
       <c r="J142" t="n">
-        <v>-2245.171409908775</v>
+        <v>-1847.192803725659</v>
       </c>
       <c r="K142" t="n">
         <v>76.10002</v>
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9299999999998363</v>
+        <v>1.12</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -8456,7 +8456,7 @@
         <v>59.60999999999996</v>
       </c>
       <c r="J143" t="n">
-        <v>-2151.424678544205</v>
+        <v>-2151.424678544203</v>
       </c>
       <c r="K143" t="n">
         <v>75.599998</v>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5199999999999818</v>
+        <v>0.67</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -8553,13 +8553,13 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>64.096</v>
+        <v>59.659</v>
       </c>
       <c r="H145" t="n">
         <v>49.8</v>
@@ -8568,7 +8568,7 @@
         <v>59.60999999999996</v>
       </c>
       <c r="J145" t="n">
-        <v>-2244.495375564413</v>
+        <v>-2244.495375564414</v>
       </c>
       <c r="K145" t="n">
         <v>61.860001</v>
@@ -8603,28 +8603,28 @@
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>49.2</v>
+        <v>49.20000000000005</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G146" t="n">
         <v>62.664</v>
       </c>
       <c r="H146" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>59.95400000000001</v>
+        <v>61.02</v>
       </c>
       <c r="J146" t="n">
-        <v>-2176.313517449434</v>
+        <v>1965.639456767549</v>
       </c>
       <c r="K146" t="n">
         <v>71.349998</v>
@@ -8659,13 +8659,13 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>49.2</v>
+        <v>49.20000000000005</v>
       </c>
       <c r="D147" t="n">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="E147" t="n">
-        <v>0.53</v>
+        <v>0.5099999999999909</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>2658.535751166946</v>
+        <v>4675.967233243348</v>
       </c>
       <c r="K147" t="n">
         <v>64.209999</v>
@@ -8715,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>49.2</v>
+        <v>49.20000000000005</v>
       </c>
       <c r="D148" t="n">
         <v>47.8</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>4541.870696579564</v>
+        <v>4541.736248182366</v>
       </c>
       <c r="K148" t="n">
         <v>63.48</v>
@@ -8771,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>49.2</v>
+        <v>49.20000000000005</v>
       </c>
       <c r="D149" t="n">
         <v>47.8</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>4468.877539940673</v>
+        <v>4468.877539940671</v>
       </c>
       <c r="K149" t="n">
         <v>61.970001</v>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>61.39</v>
+        <v>64</v>
       </c>
       <c r="D150" t="n">
         <v>49.8</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>4229.638338596968</v>
+        <v>4646.861191651526</v>
       </c>
       <c r="K150" t="n">
         <v>62.360001</v>
@@ -8883,13 +8883,13 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>61.39</v>
+        <v>64</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="F151" t="n">
         <v>49.8</v>
@@ -8904,7 +8904,7 @@
         <v>61.78</v>
       </c>
       <c r="J151" t="n">
-        <v>-313.8411686343511</v>
+        <v>1367.695178568622</v>
       </c>
       <c r="K151" t="n">
         <v>66.41999800000001</v>
@@ -8939,28 +8939,28 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>61.39</v>
+        <v>64</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>1.13</v>
+        <v>0.78</v>
       </c>
       <c r="F152" t="n">
-        <v>20.2</v>
+        <v>29.90000000000002</v>
       </c>
       <c r="G152" t="n">
         <v>63.035</v>
       </c>
       <c r="H152" t="n">
-        <v>29.6</v>
+        <v>19.89999999999998</v>
       </c>
       <c r="I152" t="n">
         <v>61.74399999999997</v>
       </c>
       <c r="J152" t="n">
-        <v>-3105.152947040003</v>
+        <v>-3115.90464268046</v>
       </c>
       <c r="K152" t="n">
         <v>80.7</v>
@@ -8995,28 +8995,28 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>61.39</v>
+        <v>64</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G153" t="n">
         <v>62.892</v>
       </c>
       <c r="H153" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>59.95799999999991</v>
+        <v>59.995</v>
       </c>
       <c r="J153" t="n">
-        <v>-7689.971431861129</v>
+        <v>-5512.199750726478</v>
       </c>
       <c r="K153" t="n">
         <v>90.29998999999999</v>
@@ -9057,22 +9057,22 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G154" t="n">
         <v>62.892</v>
       </c>
       <c r="H154" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>59.95799999999991</v>
+        <v>59.995</v>
       </c>
       <c r="J154" t="n">
-        <v>-4308.848893920823</v>
+        <v>-8665.027372280312</v>
       </c>
       <c r="K154" t="n">
         <v>93.849998</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>-624.6955518027065</v>
+        <v>-7828.134714075299</v>
       </c>
       <c r="K155" t="n">
         <v>85.31999999999999</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>-816.296479056817</v>
+        <v>-8051.35514438228</v>
       </c>
       <c r="K156" t="n">
         <v>80.19996999999999</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-4450.25682803298</v>
+        <v>-7459.893383649878</v>
       </c>
       <c r="K157" t="n">
         <v>77.44000200000001</v>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>61.91999999999999</v>
+        <v>66</v>
       </c>
       <c r="D158" t="n">
         <v>49.8</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-6078.778888841507</v>
+        <v>-6877.994145042192</v>
       </c>
       <c r="K158" t="n">
         <v>72.599998</v>
@@ -9331,13 +9331,13 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>61.91999999999999</v>
+        <v>66</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="F159" t="n">
         <v>49.8</v>
@@ -9352,7 +9352,7 @@
         <v>53.286</v>
       </c>
       <c r="J159" t="n">
-        <v>-7463.694517502602</v>
+        <v>-6045.964516849727</v>
       </c>
       <c r="K159" t="n">
         <v>65.779999</v>
@@ -9387,13 +9387,13 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>61.91999999999999</v>
+        <v>66</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="F160" t="n">
         <v>49.8</v>
@@ -9408,7 +9408,7 @@
         <v>53.286</v>
       </c>
       <c r="J160" t="n">
-        <v>-12137.76425839176</v>
+        <v>-3725.202223767232</v>
       </c>
       <c r="K160" t="n">
         <v>65.59998</v>
@@ -9443,13 +9443,13 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>61.91999999999999</v>
+        <v>66</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="F161" t="n">
         <v>49.8</v>
@@ -9464,7 +9464,7 @@
         <v>53.286</v>
       </c>
       <c r="J161" t="n">
-        <v>-10044.75128798839</v>
+        <v>-1466.823145958682</v>
       </c>
       <c r="K161" t="n">
         <v>68.29998999999999</v>
@@ -9499,13 +9499,13 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="F162" t="n">
         <v>49.8</v>
@@ -9520,7 +9520,7 @@
         <v>53.57099999999997</v>
       </c>
       <c r="J162" t="n">
-        <v>-7343.979917790804</v>
+        <v>1103.815091302596</v>
       </c>
       <c r="K162" t="n">
         <v>74.470001</v>
@@ -9555,28 +9555,28 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.78</v>
       </c>
       <c r="F163" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
         <v>57.877</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I163" t="n">
         <v>53.57099999999997</v>
       </c>
       <c r="J163" t="n">
-        <v>-5678.227332215575</v>
+        <v>-2041.782945898672</v>
       </c>
       <c r="K163" t="n">
         <v>79.33000199999999</v>
@@ -9611,28 +9611,28 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F164" t="n">
-        <v>44.1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
         <v>57.877</v>
       </c>
       <c r="H164" t="n">
-        <v>5.7</v>
+        <v>49.8</v>
       </c>
       <c r="I164" t="n">
         <v>53.57099999999997</v>
       </c>
       <c r="J164" t="n">
-        <v>-2858.681499720002</v>
+        <v>-1882.000008631526</v>
       </c>
       <c r="K164" t="n">
         <v>83.790001</v>
@@ -9667,13 +9667,13 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>53.85699999999991</v>
       </c>
       <c r="J165" t="n">
-        <v>-3832.60117536685</v>
+        <v>-1818.113822083077</v>
       </c>
       <c r="K165" t="n">
         <v>92.33000199999999</v>
@@ -9723,13 +9723,13 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>38.16</v>
+        <v>48.84</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -9744,7 +9744,7 @@
         <v>53.85699999999991</v>
       </c>
       <c r="J166" t="n">
-        <v>-2418.54067874499</v>
+        <v>-1807.874291871737</v>
       </c>
       <c r="K166" t="n">
         <v>99.31999999999999</v>
@@ -9779,13 +9779,13 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>38.16</v>
+        <v>48.84</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>1.12</v>
+        <v>0.93</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -9835,13 +9835,13 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>38.16</v>
+        <v>48.84</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0.6599999999998545</v>
+        <v>0.67</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -9891,13 +9891,13 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>38.16</v>
+        <v>48.84</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
